--- a/ResultadoEleicoesDistritos/SANTARÉM_SANTARÉM.xlsx
+++ b/ResultadoEleicoesDistritos/SANTARÉM_SANTARÉM.xlsx
@@ -597,64 +597,64 @@
         <v>15308</v>
       </c>
       <c r="H2" t="n">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="I2" t="n">
-        <v>1553</v>
+        <v>1540</v>
       </c>
       <c r="J2" t="n">
-        <v>6311</v>
+        <v>6369</v>
       </c>
       <c r="K2" t="n">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="L2" t="n">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="M2" t="n">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="N2" t="n">
-        <v>1133</v>
+        <v>1078</v>
       </c>
       <c r="O2" t="n">
+        <v>2</v>
+      </c>
+      <c r="P2" t="n">
+        <v>28</v>
+      </c>
+      <c r="Q2" t="n">
         <v>7</v>
       </c>
-      <c r="P2" t="n">
-        <v>29</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>13</v>
-      </c>
       <c r="R2" t="n">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="S2" t="n">
-        <v>686</v>
+        <v>708</v>
       </c>
       <c r="T2" t="n">
-        <v>1083</v>
+        <v>1068</v>
       </c>
       <c r="U2" t="n">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="V2" t="n">
-        <v>9681</v>
+        <v>9746</v>
       </c>
       <c r="W2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X2" t="n">
-        <v>9853</v>
+        <v>9737</v>
       </c>
       <c r="Y2" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="Z2" t="n">
-        <v>140</v>
+        <v>166</v>
       </c>
       <c r="AA2" t="n">
-        <v>53</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
